--- a/biology/Mycologie/Michel_Étienne_Descourtilz/Michel_Étienne_Descourtilz.xlsx
+++ b/biology/Mycologie/Michel_Étienne_Descourtilz/Michel_Étienne_Descourtilz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Michel_%C3%89tienne_Descourtilz</t>
+          <t>Michel_Étienne_Descourtilz</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Michel Étienne Descourtilz (25 novembre 1777 à Boiste[1] près de Pithiviers - 3 avril 1839 à Paris[2]) était un médecin français, botaniste et historiographe de la Révolution haïtienne. Il était le père de l'illustrateur Jean-Théodore Descourtilz, avec qui il a parfois collaboré[3].
-En 1799, après avoir terminé ses études de médecine, il a voyagé à Charleston, Caroline du Sud et à Santiago de Cuba, avant d'arriver en Haïti le 2 avril[4]. Bien qu'en possession d'un passeport de Toussaint Louverture et malgré son rôle de médecin au sein des forces de Jean-Jacques Dessalines, il était constamment en danger[5]. Ses collections de plantes venaient pour la plupart d'une zone située de Port-au-Prince au Cap-Haïtien et le long de la rivière Artibonite. Ses collections d'histoire naturelle et de nombreux dessins ont été détruits au cours de la révolution[réf. nécessaire]. En 1803, il est retourné en France où il a travaillé comme médecin dans un hôpital à Beaumont et a présidé la Société linnéenne à Paris.
-En tant que taxinomiste, il circonscrit le genre Nauchea (famille des Fabaceae)[6].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Michel Étienne Descourtilz (25 novembre 1777 à Boiste près de Pithiviers - 3 avril 1839 à Paris) était un médecin français, botaniste et historiographe de la Révolution haïtienne. Il était le père de l'illustrateur Jean-Théodore Descourtilz, avec qui il a parfois collaboré.
+En 1799, après avoir terminé ses études de médecine, il a voyagé à Charleston, Caroline du Sud et à Santiago de Cuba, avant d'arriver en Haïti le 2 avril. Bien qu'en possession d'un passeport de Toussaint Louverture et malgré son rôle de médecin au sein des forces de Jean-Jacques Dessalines, il était constamment en danger. Ses collections de plantes venaient pour la plupart d'une zone située de Port-au-Prince au Cap-Haïtien et le long de la rivière Artibonite. Ses collections d'histoire naturelle et de nombreux dessins ont été détruits au cours de la révolution[réf. nécessaire]. En 1803, il est retourné en France où il a travaillé comme médecin dans un hôpital à Beaumont et a présidé la Société linnéenne à Paris.
+En tant que taxinomiste, il circonscrit le genre Nauchea (famille des Fabaceae).
 </t>
         </is>
       </c>
